--- a/biology/Zoologie/Jane_(série_télévisée)/Jane_(série_télévisée).xlsx
+++ b/biology/Zoologie/Jane_(série_télévisée)/Jane_(série_télévisée).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jane_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Jane_(série_télévisée)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jane est une série télévisée américano-canadienne, créée par J. J. Johnson (en), inspirée des travaux de Jane Goodall et produite par Sinking Ship Entertainment[1] en association avec Jane Goodall Institute[2]. Elle est diffusée depuis le 14 avril 2023 sur Apple TV+. La seconde saison débutera sa diffusion le 19 avril 2024.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jane est une série télévisée américano-canadienne, créée par J. J. Johnson (en), inspirée des travaux de Jane Goodall et produite par Sinking Ship Entertainment en association avec Jane Goodall Institute. Elle est diffusée depuis le 14 avril 2023 sur Apple TV+. La seconde saison débutera sa diffusion le 19 avril 2024.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jane_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Jane_(série_télévisée)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le programme suit Jane Garcia, qui tente de sauver des espèces animales en danger, en compagnie de son meilleur ami David et de son chimpanzé Greybeard.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jane_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Jane_(série_télévisée)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Jane
 Réalisation : J.J. Johnson
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jane_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Jane_(série_télévisée)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,13 +606,52 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Principaux
-Ava Louise Murchison (VF : Jaynélia Coadou) : Jane Garcia, jeune fille de 9 ans d'ascendance mexicaine et philippine. C'est une écologiste en herbe qui part en mission pour protéger les espèces en danger, à l'aide de son imagination.
+          <t>Principaux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ava Louise Murchison (VF : Jaynélia Coadou) : Jane Garcia, jeune fille de 9 ans d'ascendance mexicaine et philippine. C'est une écologiste en herbe qui part en mission pour protéger les espèces en danger, à l'aide de son imagination.
 Mason Blomberg (VF : Pauline Ziadé) : David, meilleur ami de Jane. Toujours prêt à partir à l'aventure, il a la même imagination qu'elle.
 Tamara Almeida (VF : Pascale Mompez) : Maria Garcia, mère de Jane. Elle vit dans un appartement avec sa fille et Tata, son mari.
-Barbegrise : Un animal en peluche qui appartient à Jane. Avec son imagination, il s'anime en prenant la forme d'un chimpanzé.
-Secondaires
-Paul Sun-Hyung Lee (VF : Constantin Pappas) : M. Jin
+Barbegrise : Un animal en peluche qui appartient à Jane. Avec son imagination, il s'anime en prenant la forme d'un chimpanzé.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jane_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jane_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Secondaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Paul Sun-Hyung Lee (VF : Constantin Pappas) : M. Jin
 Al Rodrigo (VF : Xavier Couleau) : Tata, mari de Maria et père de Jane.
 Dan Abramovici (VF : Jérémy Bardeau) : Lucas, père de David.
 Sam Marra (VF : Stéphane Fourreau) : Kevin
@@ -611,38 +666,43 @@
 Jayne Eastwood (VF : Dominique Vallée) : Mme Joseph
 Graham Greene (VF : Benoît Allemane) : James
 Elise Bauman (VF : Julie Mouchel) : Annisa
- Source et légende : version française (VF) sur RS Doublage[3] et cartons du doublage français.</t>
+ Source et légende : version française (VF) sur RS Doublage et cartons du doublage français.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Jane_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jane_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jane_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Saison 1 (2023)
-Ursus maritimus
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Saison 1 (2023)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ursus maritimus
 Carcharodon carcharias
 Apis mellifera
 Acerodon jubatus
@@ -651,9 +711,43 @@
 Danaus plexippus
 Diceros bicornis
 Rangifer tarandus
-Panthera tigris
-Saison 2 (2024)
-Ailuropoda melanoleuca
+Panthera tigris</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jane_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jane_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Saison 2 (2024)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Ailuropoda melanoleuca
 Canis lupus
 Chlamyphorus truncatus
 Anthozoa
